--- a/tests/valid-testdata/GIS_data.xlsx
+++ b/tests/valid-testdata/GIS_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://energinet-my.sharepoint.com/personal/tsp_energinet_dk/Documents/Dokumenter/Private Data/Projekter/DLR/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9EA125EF-3A07-4503-858A-B66FEB0F9AC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="5" documentId="8_{9EA125EF-3A07-4503-858A-B66FEB0F9AC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0673E95A-6D76-4A86-B6DB-DAA555B200C7}"/>
   <bookViews>
-    <workbookView xWindow="8760" yWindow="1485" windowWidth="26790" windowHeight="18390" xr2:uid="{E857CEF3-4D19-4743-8639-3B24CC5A23DB}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{E857CEF3-4D19-4743-8639-3B24CC5A23DB}"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
@@ -51,14 +51,14 @@
     <t>Lat_DD</t>
   </si>
   <si>
-    <t>EEE_150_FFF</t>
+    <t>EEE_150_FFF1</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -76,6 +76,12 @@
       <sz val="10"/>
       <name val="Arial"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -426,13 +432,13 @@
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="12" bestFit="1" customWidth="1"/>
   </cols>
@@ -523,6 +529,7 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>

--- a/tests/valid-testdata/GIS_data.xlsx
+++ b/tests/valid-testdata/GIS_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://energinet-my.sharepoint.com/personal/tsp_energinet_dk/Documents/Dokumenter/Private Data/Projekter/DLR/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="5" documentId="8_{9EA125EF-3A07-4503-858A-B66FEB0F9AC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0673E95A-6D76-4A86-B6DB-DAA555B200C7}"/>
+  <xr:revisionPtr revIDLastSave="65" documentId="8_{9EA125EF-3A07-4503-858A-B66FEB0F9AC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6316B7DF-B44D-4ABE-979D-19995A2D2D61}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{E857CEF3-4D19-4743-8639-3B24CC5A23DB}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{E857CEF3-4D19-4743-8639-3B24CC5A23DB}"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="11">
   <si>
     <t>OBJECTID</t>
   </si>
@@ -52,6 +52,21 @@
   </si>
   <si>
     <t>EEE_150_FFF1</t>
+  </si>
+  <si>
+    <t>EEE_150_FFF2</t>
+  </si>
+  <si>
+    <t>GGG_150_HHH</t>
+  </si>
+  <si>
+    <t>CCC_220_DDD</t>
+  </si>
+  <si>
+    <t>III_400_ÆØÅ</t>
+  </si>
+  <si>
+    <t>ASK_400_ERS</t>
   </si>
 </sst>
 </file>
@@ -429,16 +444,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F88F9B82-3C57-4455-BF1D-D2D5D8EAE225}">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:E36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="L21" sqref="L21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="12" bestFit="1" customWidth="1"/>
   </cols>
@@ -528,6 +543,533 @@
         <v>57.401170247987999</v>
       </c>
     </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6">
+        <v>2</v>
+      </c>
+      <c r="D6" s="2">
+        <v>10.2970757426513</v>
+      </c>
+      <c r="E6" s="2">
+        <v>55.401170247987999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7">
+        <v>2</v>
+      </c>
+      <c r="D7" s="2">
+        <v>10.2970757426513</v>
+      </c>
+      <c r="E7" s="2">
+        <v>55.401170247987999</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8">
+        <v>2</v>
+      </c>
+      <c r="D8" s="2">
+        <v>10.2970757426513</v>
+      </c>
+      <c r="E8" s="2">
+        <v>55.401170247987999</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9">
+        <v>2</v>
+      </c>
+      <c r="D9" s="2">
+        <v>10.2970757426513</v>
+      </c>
+      <c r="E9" s="2">
+        <v>55.401170247987999</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10">
+        <v>2</v>
+      </c>
+      <c r="D10" s="2">
+        <v>10.2970757426513</v>
+      </c>
+      <c r="E10" s="2">
+        <v>55.401170247987999</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>6</v>
+      </c>
+      <c r="C11">
+        <v>2</v>
+      </c>
+      <c r="D11" s="2">
+        <v>10.2970757426513</v>
+      </c>
+      <c r="E11" s="2">
+        <v>55.401170247987999</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>7</v>
+      </c>
+      <c r="C12">
+        <v>3</v>
+      </c>
+      <c r="D12" s="2">
+        <v>14.2970757426513</v>
+      </c>
+      <c r="E12" s="2">
+        <v>59.401170247987999</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>7</v>
+      </c>
+      <c r="C13">
+        <v>3</v>
+      </c>
+      <c r="D13" s="2">
+        <v>14.2970757426513</v>
+      </c>
+      <c r="E13" s="2">
+        <v>59.401170247987999</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>7</v>
+      </c>
+      <c r="C14">
+        <v>3</v>
+      </c>
+      <c r="D14" s="2">
+        <v>14.2970757426513</v>
+      </c>
+      <c r="E14" s="2">
+        <v>59.401170247987999</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>7</v>
+      </c>
+      <c r="C15">
+        <v>3</v>
+      </c>
+      <c r="D15" s="2">
+        <v>14.2970757426513</v>
+      </c>
+      <c r="E15" s="2">
+        <v>59.401170247987999</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
+        <v>7</v>
+      </c>
+      <c r="C16">
+        <v>3</v>
+      </c>
+      <c r="D16" s="2">
+        <v>14.2970757426513</v>
+      </c>
+      <c r="E16" s="2">
+        <v>59.401170247987999</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
+        <v>7</v>
+      </c>
+      <c r="C17">
+        <v>3</v>
+      </c>
+      <c r="D17" s="2">
+        <v>14.2970757426513</v>
+      </c>
+      <c r="E17" s="2">
+        <v>59.401170247987999</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" t="s">
+        <v>8</v>
+      </c>
+      <c r="C18">
+        <v>4</v>
+      </c>
+      <c r="D18" s="2">
+        <v>11.2970757426513</v>
+      </c>
+      <c r="E18" s="2">
+        <v>56.401170247987999</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19" t="s">
+        <v>8</v>
+      </c>
+      <c r="C19">
+        <v>4</v>
+      </c>
+      <c r="D19" s="2">
+        <v>11.2970757426513</v>
+      </c>
+      <c r="E19" s="2">
+        <v>56.401170247987999</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20" t="s">
+        <v>8</v>
+      </c>
+      <c r="C20">
+        <v>4</v>
+      </c>
+      <c r="D20" s="2">
+        <v>11.2970757426513</v>
+      </c>
+      <c r="E20" s="2">
+        <v>56.401170247987999</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21" t="s">
+        <v>8</v>
+      </c>
+      <c r="C21">
+        <v>4</v>
+      </c>
+      <c r="D21" s="2">
+        <v>11.2970757426513</v>
+      </c>
+      <c r="E21" s="2">
+        <v>56.401170247987999</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22" t="s">
+        <v>8</v>
+      </c>
+      <c r="C22">
+        <v>4</v>
+      </c>
+      <c r="D22" s="2">
+        <v>11.2970757426513</v>
+      </c>
+      <c r="E22" s="2">
+        <v>56.401170247987999</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23" t="s">
+        <v>8</v>
+      </c>
+      <c r="C23">
+        <v>4</v>
+      </c>
+      <c r="D23" s="2">
+        <v>11.2970757426513</v>
+      </c>
+      <c r="E23" s="2">
+        <v>56.401170247987999</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>9</v>
+      </c>
+      <c r="C24">
+        <v>5</v>
+      </c>
+      <c r="D24" s="2">
+        <v>13.2970757426513</v>
+      </c>
+      <c r="E24" s="2">
+        <v>58.401170247987999</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>9</v>
+      </c>
+      <c r="C25">
+        <v>5</v>
+      </c>
+      <c r="D25" s="2">
+        <v>13.2970757426513</v>
+      </c>
+      <c r="E25" s="2">
+        <v>58.401170247987999</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26" t="s">
+        <v>9</v>
+      </c>
+      <c r="C26">
+        <v>5</v>
+      </c>
+      <c r="D26" s="2">
+        <v>13.2970757426513</v>
+      </c>
+      <c r="E26" s="2">
+        <v>58.401170247987999</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27" t="s">
+        <v>9</v>
+      </c>
+      <c r="C27">
+        <v>5</v>
+      </c>
+      <c r="D27" s="2">
+        <v>13.2970757426513</v>
+      </c>
+      <c r="E27" s="2">
+        <v>58.401170247987999</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28" t="s">
+        <v>9</v>
+      </c>
+      <c r="C28">
+        <v>5</v>
+      </c>
+      <c r="D28" s="2">
+        <v>13.2970757426513</v>
+      </c>
+      <c r="E28" s="2">
+        <v>58.401170247987999</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29" t="s">
+        <v>10</v>
+      </c>
+      <c r="C29">
+        <v>6</v>
+      </c>
+      <c r="D29" s="2">
+        <v>16.297075742651302</v>
+      </c>
+      <c r="E29" s="2">
+        <v>60.401170247987999</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="B30" t="s">
+        <v>10</v>
+      </c>
+      <c r="C30">
+        <v>6</v>
+      </c>
+      <c r="D30" s="2">
+        <v>16.297075742651302</v>
+      </c>
+      <c r="E30" s="2">
+        <v>60.401170247987999</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="B31" t="s">
+        <v>10</v>
+      </c>
+      <c r="C31">
+        <v>6</v>
+      </c>
+      <c r="D31" s="2">
+        <v>16.297075742651302</v>
+      </c>
+      <c r="E31" s="2">
+        <v>60.401170247987999</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>31</v>
+      </c>
+      <c r="B32" t="s">
+        <v>10</v>
+      </c>
+      <c r="C32">
+        <v>6</v>
+      </c>
+      <c r="D32" s="2">
+        <v>16.297075742651302</v>
+      </c>
+      <c r="E32" s="2">
+        <v>60.401170247987999</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>32</v>
+      </c>
+      <c r="B33" t="s">
+        <v>10</v>
+      </c>
+      <c r="C33">
+        <v>6</v>
+      </c>
+      <c r="D33" s="2">
+        <v>16.297075742651302</v>
+      </c>
+      <c r="E33" s="2">
+        <v>60.401170247987999</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>33</v>
+      </c>
+      <c r="B34" t="s">
+        <v>10</v>
+      </c>
+      <c r="C34">
+        <v>6</v>
+      </c>
+      <c r="D34" s="2">
+        <v>16.297075742651302</v>
+      </c>
+      <c r="E34" s="2">
+        <v>60.401170247987999</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>34</v>
+      </c>
+      <c r="B35" t="s">
+        <v>10</v>
+      </c>
+      <c r="C35">
+        <v>6</v>
+      </c>
+      <c r="D35" s="2">
+        <v>16.297075742651302</v>
+      </c>
+      <c r="E35" s="2">
+        <v>60.401170247987999</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>35</v>
+      </c>
+      <c r="B36" t="s">
+        <v>10</v>
+      </c>
+      <c r="C36">
+        <v>6</v>
+      </c>
+      <c r="D36" s="2">
+        <v>16.297075742651302</v>
+      </c>
+      <c r="E36" s="2">
+        <v>60.401170247987999</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
